--- a/matlab/experiment/27Aug/30deg/sim60deg2.xlsx
+++ b/matlab/experiment/27Aug/30deg/sim60deg2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\60deg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\27Aug\30deg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD28F75F-9898-455B-BB52-4BE5C9948B40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957F8EC3-76C2-49DC-BE44-BA45AAD2618A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{6406592D-11B1-4D80-8233-1BE132ADD692}"/>
   </bookViews>
@@ -38,6 +38,50 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Spacing </t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Fitness</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90,20 +134,5371 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Spacing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.57948108670240539</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57948108670240539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.55200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.56100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.54800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-28E1-4889-A0A3-EC3EF6974565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.2915568373714138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2915568373714138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.41099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.441</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.44400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.42599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.435</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.433</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.42199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.42499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-28E1-4889-A0A3-EC3EF6974565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Spacing!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Spacing!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0.52120706328290056</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52120706328290056</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.52100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.48799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.58499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.50800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.53300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.45600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.46100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-28E1-4889-A0A3-EC3EF6974565}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="398430208"/>
+        <c:axId val="398434368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="398430208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398434368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398434368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398430208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Phase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>207.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>41.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>276.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>276.8</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>276.8</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>276.8</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>277.8</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>277.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>277.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>275.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>275.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>275.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>275.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>276.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>274.3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>274.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>274.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>274.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>275.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>276.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>276.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>276.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>276.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>177.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>178.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>179.8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>176.1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>177.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>178.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>178.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>177.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>214.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>107.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>84.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>90.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>98.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>116.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>101.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>52.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Phase!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Phase!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>316.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>316.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>315.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>315.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>315.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>316.3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>316.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>316.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>316.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>316.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>316.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>316.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>316.3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>316.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>316.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C2C8-4A18-B01D-66236065C9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="398433120"/>
+        <c:axId val="398388928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="398433120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398388928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398388928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398433120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.86599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.83196186226015356</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.83196186226015356</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97215203118168692</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97215203118168692</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.997</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.93960228996112571</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.93960228996112571</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.93960228996112571</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$E$2:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.86399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Amplitude!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Amplitude!$F$2:$F$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7D62-468B-BC65-5AA49B482E13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="386665664"/>
+        <c:axId val="386676896"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="386665664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386676896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="386676896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386665664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>30479</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>87301</xdr:rowOff>
+      <xdr:rowOff>79680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>534510</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>7941</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>380932</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -126,8 +5521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="182880" y="87301"/>
-          <a:ext cx="5838030" cy="3212480"/>
+          <a:off x="30479" y="79680"/>
+          <a:ext cx="7056053" cy="3882719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,16 +5533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>41177</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361216</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>99061</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>33065</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>490227</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -170,14 +5565,128 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6137177" y="53340"/>
-          <a:ext cx="3715484" cy="3271565"/>
+          <a:off x="7066816" y="76200"/>
+          <a:ext cx="4396211" cy="3870960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC72557E-8F57-4039-A05F-131C82F90705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828913FB-3316-48FE-9FAB-39959236B3EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A5E676-32C6-4657-B2F4-8337D5304769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -480,14 +5989,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F934BF-982F-4914-B5CB-E32EDFB1C372}">
-  <dimension ref="A1"/>
+  <dimension ref="B24:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D24">
+        <v>0.43</v>
+      </c>
+      <c r="E24">
+        <v>0.46</v>
+      </c>
+      <c r="F24">
+        <v>0.43</v>
+      </c>
+      <c r="G24">
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>38.6</v>
+      </c>
+      <c r="D25">
+        <v>276.5</v>
+      </c>
+      <c r="E25">
+        <v>177.9</v>
+      </c>
+      <c r="F25">
+        <v>101.1</v>
+      </c>
+      <c r="G25">
+        <v>39</v>
+      </c>
+      <c r="H25">
+        <v>316.3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D26">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="E26">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="G26">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>-4.5609574409124889</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -495,29 +6079,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96AE0471-6CF7-4C1A-9576-701C29189F5F}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>0.57948108670240539</v>
-      </c>
-      <c r="B1">
-        <v>0.2915568373714138</v>
-      </c>
-      <c r="C1">
-        <v>0.52120706328290056</v>
-      </c>
-      <c r="D1">
-        <v>0.2915568373714138</v>
-      </c>
-      <c r="E1">
-        <v>0.57948108670240539</v>
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,19 +6117,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>0.57899999999999996</v>
+        <v>0.57948108670240539</v>
       </c>
       <c r="B3">
-        <v>0.29199999999999998</v>
+        <v>0.2915568373714138</v>
       </c>
       <c r="C3">
-        <v>0.52100000000000002</v>
+        <v>0.52120706328290056</v>
       </c>
       <c r="D3">
-        <v>0.29199999999999998</v>
+        <v>0.2915568373714138</v>
       </c>
       <c r="E3">
-        <v>0.57899999999999996</v>
+        <v>0.57948108670240539</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -590,19 +6168,19 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>0.55200000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="B6">
-        <v>0.67800000000000005</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D6">
-        <v>0.67800000000000005</v>
+        <v>0.29199999999999998</v>
       </c>
       <c r="E6">
-        <v>0.55200000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -624,36 +6202,36 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>0.59299999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="B8">
-        <v>0.35899999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="C8">
-        <v>0.52600000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>0.35899999999999999</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="E8">
-        <v>0.59299999999999997</v>
+        <v>0.55200000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.48599999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
       <c r="B9">
-        <v>0.55500000000000005</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C9">
-        <v>0.48799999999999999</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="D9">
-        <v>0.55500000000000005</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="E9">
-        <v>0.48599999999999999</v>
+        <v>0.59299999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -675,19 +6253,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0.54800000000000004</v>
+        <v>0.48599999999999999</v>
       </c>
       <c r="B11">
-        <v>0.58499999999999996</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="C11">
-        <v>0.58499999999999996</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="D11">
-        <v>0.58499999999999996</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E11">
-        <v>0.54800000000000004</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -709,19 +6287,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.53200000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="B13">
-        <v>0.54900000000000004</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="C13">
-        <v>0.50800000000000001</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D13">
-        <v>0.54900000000000004</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="E13">
-        <v>0.53200000000000003</v>
+        <v>0.54800000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -828,19 +6406,19 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.53500000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="B20">
-        <v>0.57299999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="C20">
-        <v>0.53300000000000003</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="D20">
-        <v>0.57299999999999995</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="E20">
-        <v>0.53500000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -862,19 +6440,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.55900000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="B22">
-        <v>0.41099999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="C22">
-        <v>0.46100000000000002</v>
+        <v>0.53300000000000003</v>
       </c>
       <c r="D22">
-        <v>0.41099999999999998</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="E22">
-        <v>0.55900000000000005</v>
+        <v>0.53500000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -913,19 +6491,19 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.54900000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="B25">
-        <v>0.44</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="C25">
-        <v>0.45300000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D25">
-        <v>0.44</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E25">
-        <v>0.54900000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -998,19 +6576,19 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.55900000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="B30">
-        <v>0.41099999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="C30">
-        <v>0.46100000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D30">
-        <v>0.41099999999999998</v>
+        <v>0.44</v>
       </c>
       <c r="E30">
-        <v>0.55900000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -1032,36 +6610,36 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.54900000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="B32">
-        <v>0.44</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="C32">
-        <v>0.45300000000000001</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D32">
-        <v>0.44</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E32">
-        <v>0.54900000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.55900000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="B33">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="C33">
-        <v>0.45600000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D33">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="E33">
-        <v>0.55900000000000005</v>
+        <v>0.54900000000000004</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -1069,13 +6647,13 @@
         <v>0.55900000000000005</v>
       </c>
       <c r="B34">
-        <v>0.44400000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="C34">
-        <v>0.45300000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="D34">
-        <v>0.44400000000000001</v>
+        <v>0.441</v>
       </c>
       <c r="E34">
         <v>0.55900000000000005</v>
@@ -1100,36 +6678,36 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.56200000000000006</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="B36">
-        <v>0.41899999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C36">
-        <v>0.45800000000000002</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="D36">
-        <v>0.41899999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="E36">
-        <v>0.56200000000000006</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.56100000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="B37">
-        <v>0.42599999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="C37">
-        <v>0.46</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D37">
-        <v>0.42599999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="E37">
-        <v>0.56100000000000005</v>
+        <v>0.56200000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1137,13 +6715,13 @@
         <v>0.56100000000000005</v>
       </c>
       <c r="B38">
-        <v>0.42</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="C38">
-        <v>0.45700000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D38">
-        <v>0.42</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="E38">
         <v>0.56100000000000005</v>
@@ -1168,19 +6746,19 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.55800000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="B40">
-        <v>0.435</v>
+        <v>0.42</v>
       </c>
       <c r="C40">
-        <v>0.46</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="D40">
-        <v>0.435</v>
+        <v>0.42</v>
       </c>
       <c r="E40">
-        <v>0.55800000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -1202,53 +6780,53 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.56000000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="B42">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="C42">
-        <v>0.46100000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D42">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="E42">
-        <v>0.56000000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.56100000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="B43">
-        <v>0.42399999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="C43">
-        <v>0.46</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="D43">
-        <v>0.42399999999999999</v>
+        <v>0.433</v>
       </c>
       <c r="E43">
-        <v>0.56100000000000005</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.55900000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="B44">
-        <v>0.42199999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="C44">
-        <v>0.45900000000000002</v>
+        <v>0.46</v>
       </c>
       <c r="D44">
-        <v>0.42199999999999999</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="E44">
-        <v>0.55900000000000005</v>
+        <v>0.56100000000000005</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -1287,19 +6865,19 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.54800000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="B47">
-        <v>0.42499999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="C47">
-        <v>0.46200000000000002</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="D47">
-        <v>0.42499999999999999</v>
+        <v>0.42199999999999999</v>
       </c>
       <c r="E47">
-        <v>0.54800000000000004</v>
+        <v>0.55900000000000005</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
@@ -1338,18 +6916,35 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="B50">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C50">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D50">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="E50">
+        <v>0.54800000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>0.54900000000000004</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0.43</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>0.46</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>0.43</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>0.54900000000000004</v>
       </c>
     </row>
@@ -1360,32 +6955,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F8476E-FF1F-4AF8-96DF-165F7A9FD51F}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>44</v>
-      </c>
-      <c r="B1">
-        <v>279</v>
-      </c>
-      <c r="C1">
-        <v>178</v>
-      </c>
-      <c r="D1">
-        <v>49</v>
-      </c>
-      <c r="E1">
-        <v>51</v>
-      </c>
-      <c r="F1">
-        <v>317</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1470,22 +7065,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="C6">
-        <v>242</v>
+        <v>178</v>
       </c>
       <c r="D6">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>345</v>
+        <v>51</v>
       </c>
       <c r="F6">
-        <v>278</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1510,42 +7105,42 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="B8">
-        <v>279</v>
+        <v>334</v>
       </c>
       <c r="C8">
-        <v>178</v>
+        <v>242</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="E8">
-        <v>51</v>
+        <v>345</v>
       </c>
       <c r="F8">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>207.5</v>
+        <v>44</v>
       </c>
       <c r="B9">
-        <v>63.5</v>
+        <v>279</v>
       </c>
       <c r="C9">
-        <v>305</v>
+        <v>178</v>
       </c>
       <c r="D9">
-        <v>214.5</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>53</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1570,22 +7165,22 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>104</v>
+        <v>207.5</v>
       </c>
       <c r="B11">
-        <v>334</v>
+        <v>63.5</v>
       </c>
       <c r="C11">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="D11">
-        <v>99</v>
+        <v>214.5</v>
       </c>
       <c r="E11">
-        <v>345</v>
+        <v>176</v>
       </c>
       <c r="F11">
-        <v>278</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,7 +7234,7 @@
         <v>242</v>
       </c>
       <c r="D14">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>345</v>
@@ -1759,7 +7354,7 @@
         <v>242</v>
       </c>
       <c r="D20">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>345</v>
@@ -1790,22 +7385,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>45.4</v>
+        <v>104</v>
       </c>
       <c r="B22">
-        <v>277.2</v>
+        <v>334</v>
       </c>
       <c r="C22">
-        <v>179.8</v>
+        <v>242</v>
       </c>
       <c r="D22">
-        <v>107.5</v>
+        <v>99</v>
       </c>
       <c r="E22">
-        <v>53.3</v>
+        <v>345</v>
       </c>
       <c r="F22">
-        <v>317</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,22 +7445,22 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>36.299999999999997</v>
+        <v>45.4</v>
       </c>
       <c r="B25">
-        <v>276.8</v>
+        <v>277.2</v>
       </c>
       <c r="C25">
-        <v>177.5</v>
+        <v>179.8</v>
       </c>
       <c r="D25">
-        <v>97.5</v>
+        <v>107.5</v>
       </c>
       <c r="E25">
-        <v>57.5</v>
+        <v>53.3</v>
       </c>
       <c r="F25">
-        <v>316.39999999999998</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,42 +7525,42 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>45.4</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="B29">
-        <v>277.2</v>
+        <v>276.8</v>
       </c>
       <c r="C29">
-        <v>179.8</v>
+        <v>177.5</v>
       </c>
       <c r="D29">
-        <v>107.5</v>
+        <v>97.5</v>
       </c>
       <c r="E29">
-        <v>53.3</v>
+        <v>57.5</v>
       </c>
       <c r="F29">
-        <v>317</v>
+        <v>316.39999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>45.2</v>
+        <v>45.4</v>
       </c>
       <c r="B30">
-        <v>277.8</v>
+        <v>277.2</v>
       </c>
       <c r="C30">
-        <v>178.7</v>
+        <v>179.8</v>
       </c>
       <c r="D30">
-        <v>97</v>
+        <v>107.5</v>
       </c>
       <c r="E30">
-        <v>52.3</v>
+        <v>53.3</v>
       </c>
       <c r="F30">
-        <v>316.89999999999998</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1990,42 +7585,42 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="B32">
-        <v>277.2</v>
+        <v>277.8</v>
       </c>
       <c r="C32">
-        <v>179.8</v>
+        <v>178.7</v>
       </c>
       <c r="D32">
-        <v>107.5</v>
+        <v>97</v>
       </c>
       <c r="E32">
-        <v>53.3</v>
+        <v>52.3</v>
       </c>
       <c r="F32">
-        <v>317</v>
+        <v>316.89999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>26.6</v>
+        <v>45.4</v>
       </c>
       <c r="B33">
-        <v>275.89999999999998</v>
+        <v>277.2</v>
       </c>
       <c r="C33">
-        <v>176.1</v>
+        <v>179.8</v>
       </c>
       <c r="D33">
-        <v>84.9</v>
+        <v>107.5</v>
       </c>
       <c r="E33">
-        <v>52</v>
+        <v>53.3</v>
       </c>
       <c r="F33">
-        <v>315.7</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2070,62 +7665,62 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>38.700000000000003</v>
+        <v>26.6</v>
       </c>
       <c r="B36">
         <v>275.89999999999998</v>
       </c>
       <c r="C36">
-        <v>178.1</v>
+        <v>176.1</v>
       </c>
       <c r="D36">
-        <v>103.3</v>
+        <v>84.9</v>
       </c>
       <c r="E36">
-        <v>56.8</v>
+        <v>52</v>
       </c>
       <c r="F36">
-        <v>316.3</v>
+        <v>315.7</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>33.799999999999997</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="B37">
-        <v>276.2</v>
+        <v>275.89999999999998</v>
       </c>
       <c r="C37">
-        <v>177.2</v>
+        <v>178.1</v>
       </c>
       <c r="D37">
-        <v>90.5</v>
+        <v>103.3</v>
       </c>
       <c r="E37">
-        <v>53.6</v>
+        <v>56.8</v>
       </c>
       <c r="F37">
-        <v>316</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>40.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="B38">
-        <v>274.8</v>
+        <v>276.2</v>
       </c>
       <c r="C38">
-        <v>178.1</v>
+        <v>177.2</v>
       </c>
       <c r="D38">
-        <v>98.6</v>
+        <v>90.5</v>
       </c>
       <c r="E38">
-        <v>52.6</v>
+        <v>53.6</v>
       </c>
       <c r="F38">
-        <v>316.39999999999998</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2150,22 +7745,22 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38.5</v>
+        <v>40.6</v>
       </c>
       <c r="B40">
-        <v>274.3</v>
+        <v>274.8</v>
       </c>
       <c r="C40">
         <v>178.1</v>
       </c>
       <c r="D40">
-        <v>116.7</v>
+        <v>98.6</v>
       </c>
       <c r="E40">
-        <v>51.2</v>
+        <v>52.6</v>
       </c>
       <c r="F40">
-        <v>316.10000000000002</v>
+        <v>316.39999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2230,22 +7825,22 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>39.799999999999997</v>
+        <v>38.5</v>
       </c>
       <c r="B44">
-        <v>275.39999999999998</v>
+        <v>274.3</v>
       </c>
       <c r="C44">
-        <v>178.2</v>
+        <v>178.1</v>
       </c>
       <c r="D44">
-        <v>106.4</v>
+        <v>116.7</v>
       </c>
       <c r="E44">
-        <v>46</v>
+        <v>51.2</v>
       </c>
       <c r="F44">
-        <v>316.3</v>
+        <v>316.10000000000002</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,22 +7885,22 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>41.8</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="B47">
-        <v>276.60000000000002</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="C47">
         <v>178.2</v>
       </c>
       <c r="D47">
-        <v>97.3</v>
+        <v>106.4</v>
       </c>
       <c r="E47">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F47">
-        <v>316.39999999999998</v>
+        <v>316.3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2350,21 +7945,41 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>41.8</v>
+      </c>
+      <c r="B50">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="C50">
+        <v>178.2</v>
+      </c>
+      <c r="D50">
+        <v>97.3</v>
+      </c>
+      <c r="E50">
+        <v>37</v>
+      </c>
+      <c r="F50">
+        <v>316.39999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>38.6</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>276.5</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>177.9</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>101.1</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>39</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>316.3</v>
       </c>
     </row>
@@ -2375,32 +7990,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E2D72CA-C2FE-453B-A70A-4B8A87879C69}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:F50"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -2517,7 +8132,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.76600000000000001</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2537,7 +8152,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2545,7 +8160,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>0.876</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2585,16 +8200,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>1</v>
+        <v>0.876</v>
       </c>
       <c r="B11">
-        <v>0.97199999999999998</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.98499999999999999</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2625,19 +8240,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>0.97699999999999998</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.97199999999999998</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="E13">
-        <v>0.86299999999999999</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2765,19 +8380,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>0.96799999999999997</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="B20">
-        <v>0.97799999999999998</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>0.97215203118168692</v>
+        <v>1</v>
       </c>
       <c r="D20">
-        <v>0.94399999999999995</v>
+        <v>0.999</v>
       </c>
       <c r="E20">
-        <v>0.95299999999999996</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -2805,19 +8420,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.96199999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="B22">
-        <v>0.998</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0.97215203118168692</v>
       </c>
       <c r="D22">
-        <v>0.92800000000000005</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="E22">
-        <v>0.94899999999999995</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -2865,19 +8480,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>0.97799999999999998</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="B25">
-        <v>0.83196186226015356</v>
+        <v>0.998</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.96399999999999997</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="E25">
-        <v>0.95799999999999996</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -2905,19 +8520,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>0.96</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="B27">
-        <v>0.89900000000000002</v>
+        <v>0.83196186226015356</v>
       </c>
       <c r="C27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>0.97399999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="E27">
-        <v>0.92900000000000005</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2945,19 +8560,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.94599999999999995</v>
+        <v>0.96</v>
       </c>
       <c r="B29">
-        <v>0.93899999999999995</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="C29">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="D29">
-        <v>0.95099999999999996</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="E29">
-        <v>0.91900000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2965,19 +8580,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>0.85499999999999998</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="B30">
-        <v>0.97</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C30">
-        <v>0.98699999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="D30">
-        <v>0.94499999999999995</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E30">
-        <v>0.94799999999999995</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -3005,19 +8620,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.94599999999999995</v>
+        <v>0.85499999999999998</v>
       </c>
       <c r="B32">
-        <v>0.93899999999999995</v>
+        <v>0.97</v>
       </c>
       <c r="C32">
-        <v>0.997</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="D32">
-        <v>0.95099999999999996</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="E32">
-        <v>0.91900000000000004</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -3025,19 +8640,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.82299999999999995</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="B33">
-        <v>0.88100000000000001</v>
+        <v>0.93899999999999995</v>
       </c>
       <c r="C33">
-        <v>0.98799999999999999</v>
+        <v>0.997</v>
       </c>
       <c r="D33">
-        <v>0.93960228996112571</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="E33">
-        <v>0.86399999999999999</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -3085,19 +8700,19 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.85599999999999998</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="B36">
-        <v>0.95699999999999996</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="C36">
-        <v>0.97799999999999998</v>
+        <v>0.98799999999999999</v>
       </c>
       <c r="D36">
-        <v>0.88400000000000001</v>
+        <v>0.93960228996112571</v>
       </c>
       <c r="E36">
-        <v>0.95</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -3105,19 +8720,19 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.81799999999999995</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="B37">
-        <v>0.93300000000000005</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="C37">
-        <v>0.97</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="D37">
-        <v>0.88200000000000001</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="E37">
-        <v>0.94699999999999995</v>
+        <v>0.95</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -3125,19 +8740,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.78900000000000003</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="B38">
-        <v>0.94199999999999995</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="C38">
-        <v>0.97399999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="D38">
-        <v>0.89900000000000002</v>
+        <v>0.88200000000000001</v>
       </c>
       <c r="E38">
-        <v>0.94599999999999995</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3165,19 +8780,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.81799999999999995</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="B40">
-        <v>0.95399999999999996</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="C40">
-        <v>0.94299999999999995</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D40">
-        <v>0.85399999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="E40">
-        <v>0.95</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -3245,19 +8860,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.78</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="B44">
-        <v>0.92300000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="C44">
-        <v>0.97</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="D44">
-        <v>0.89</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="E44">
-        <v>0.93400000000000005</v>
+        <v>0.95</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3305,19 +8920,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.86599999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B47">
-        <v>0.94399999999999995</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="C47">
-        <v>0.97399999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="D47">
-        <v>0.90300000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="E47">
-        <v>0.94199999999999995</v>
+        <v>0.93400000000000005</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -3325,19 +8940,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.90100000000000002</v>
+        <v>0.86599999999999999</v>
       </c>
       <c r="B48">
-        <v>0.95099999999999996</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="C48">
-        <v>0.98</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="D48">
-        <v>0.91200000000000003</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="E48">
-        <v>0.94</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3365,21 +8980,41 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="B50">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="C50">
+        <v>0.98</v>
+      </c>
+      <c r="D50">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="E50">
+        <v>0.94</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>0.71399999999999997</v>
       </c>
-      <c r="B50">
+      <c r="B51">
         <v>0.93700000000000006</v>
       </c>
-      <c r="C50">
+      <c r="C51">
         <v>0.95899999999999996</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>0.86499999999999999</v>
       </c>
-      <c r="E50">
+      <c r="E51">
         <v>0.94499999999999995</v>
       </c>
-      <c r="F50">
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
